--- a/medicine/Psychotrope/Embouteilleur_indépendant/Embouteilleur_indépendant.xlsx
+++ b/medicine/Psychotrope/Embouteilleur_indépendant/Embouteilleur_indépendant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Embouteilleur_ind%C3%A9pendant</t>
+          <t>Embouteilleur_indépendant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un embouteilleur indépendant est une entreprise qui commercialise des boissons alcoolisée comme le whisky ou non, sans l'avoir fabriqué lui-même.
 Il existe deux circuits de distribution du whisky :
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Embouteilleur_ind%C3%A9pendant</t>
+          <t>Embouteilleur_indépendant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Explication historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XIXe siècle le whisky est vendu sous la forme de blends. Ceux-ci sont élaborés et distribués par des marchands de vin qui achètent des fûts de whiskies dans différentes distilleries et qui, en fonction d'une recette qui leur est propre, élaborent les mélanges (ex: Berry Bros &amp; Rudd ou William Grant. Pendant tout cette période ils amassent dans leurs chais des centaines de fûts de single malt.
 Ce système de commercialisation perdurera de façon presque exclusive jusque dans les années 1960. 
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Embouteilleur_ind%C3%A9pendant</t>
+          <t>Embouteilleur_indépendant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Liste d'embouteilleurs indépendants de whisky</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelphi
 Blackadder
